--- a/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
@@ -34,11 +34,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="295">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -452,6 +453,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
@@ -987,7 +991,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1044,13 +1048,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1082,14 +1079,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1099,27 +1096,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1158,7 +1140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,14 +1166,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1200,23 +1179,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,39 +1203,51 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,71 +1255,63 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1336,7 +1319,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1344,52 +1327,52 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -1397,7 +1380,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Good" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1426,7 +1408,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1465,7 +1447,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1484,18 +1466,18 @@
   <dimension ref="A1:AR77"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N59" activeCellId="0" sqref="N59"/>
+      <selection pane="bottomLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.5627530364373"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4331,8 +4313,8 @@
       <c r="N33" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="16" t="n">
-        <v>5449000189301</v>
+      <c r="O33" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="P33" s="25"/>
       <c r="Q33" s="8"/>
@@ -4402,10 +4384,10 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>55</v>
@@ -4417,7 +4399,7 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O34" s="16" t="n">
         <v>5449000233622</v>
@@ -4490,10 +4472,10 @@
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>55</v>
@@ -4505,7 +4487,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O35" s="16" t="n">
         <v>5449000189318</v>
@@ -4578,10 +4560,10 @@
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>55</v>
@@ -4593,7 +4575,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O36" s="16" t="n">
         <v>5449000233615</v>
@@ -4666,10 +4648,10 @@
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>50</v>
@@ -4714,7 +4696,7 @@
         <v>36</v>
       </c>
       <c r="AO37" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AP37" s="10"/>
       <c r="AQ37" s="10"/>
@@ -4738,10 +4720,10 @@
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>55</v>
@@ -4753,7 +4735,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O38" s="16" t="n">
         <v>4607174577787</v>
@@ -4803,7 +4785,7 @@
       </c>
       <c r="AO38" s="10"/>
       <c r="AP38" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ38" s="10"/>
       <c r="AR38" s="13"/>
@@ -4826,10 +4808,10 @@
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>55</v>
@@ -4841,7 +4823,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O39" s="16" t="n">
         <v>4607174577794</v>
@@ -4891,7 +4873,7 @@
       </c>
       <c r="AO39" s="10"/>
       <c r="AP39" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ39" s="10"/>
       <c r="AR39" s="13"/>
@@ -4914,10 +4896,10 @@
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>55</v>
@@ -4929,7 +4911,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O40" s="16" t="n">
         <v>4607174579729</v>
@@ -4979,7 +4961,7 @@
       </c>
       <c r="AO40" s="10"/>
       <c r="AP40" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ40" s="10"/>
       <c r="AR40" s="13"/>
@@ -5002,10 +4984,10 @@
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>55</v>
@@ -5017,7 +4999,7 @@
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O41" s="16" t="n">
         <v>4607174574908</v>
@@ -5067,7 +5049,7 @@
       </c>
       <c r="AO41" s="10"/>
       <c r="AP41" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AQ41" s="10"/>
       <c r="AR41" s="13"/>
@@ -5086,17 +5068,17 @@
         <v>46</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8" t="n">
@@ -5105,27 +5087,27 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O42" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="P42" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q42" s="28"/>
+      <c r="O42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q42" s="29"/>
       <c r="R42" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
@@ -5136,9 +5118,9 @@
         <v>51</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF42" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF42" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG42" s="8" t="n">
@@ -5148,10 +5130,10 @@
         <v>1</v>
       </c>
       <c r="AI42" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ42" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
@@ -5180,17 +5162,17 @@
         <v>46</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8" t="n">
@@ -5199,27 +5181,27 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q43" s="28"/>
+        <v>147</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q43" s="29"/>
       <c r="R43" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
@@ -5230,9 +5212,9 @@
         <v>51</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF43" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF43" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG43" s="8" t="n">
@@ -5242,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
@@ -5274,17 +5256,17 @@
         <v>46</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8" t="n">
@@ -5293,27 +5275,27 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O44" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="P44" s="30" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+      <c r="O44" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="Q44" s="9"/>
-      <c r="R44" s="31" t="s">
+      <c r="R44" s="32" t="s">
         <v>56</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
@@ -5324,9 +5306,9 @@
         <v>51</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF44" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF44" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG44" s="8" t="n">
@@ -5336,10 +5318,10 @@
         <v>1</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ44" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
@@ -5368,17 +5350,17 @@
         <v>46</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8" t="n">
@@ -5387,27 +5369,27 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="P45" s="30" t="s">
-        <v>164</v>
+        <v>147</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="Q45" s="9"/>
       <c r="R45" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
@@ -5418,9 +5400,9 @@
         <v>51</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF45" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF45" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG45" s="8" t="n">
@@ -5430,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="AI45" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
@@ -5461,18 +5443,18 @@
       <c r="D46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="32"/>
+      <c r="E46" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="33"/>
       <c r="G46" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="10" t="n">
@@ -5504,7 +5486,7 @@
       <c r="AE46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF46" s="33" t="n">
+      <c r="AF46" s="34" t="n">
         <v>0.05</v>
       </c>
       <c r="AG46" s="10"/>
@@ -5519,8 +5501,8 @@
       <c r="AN46" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="AO46" s="34" t="s">
-        <v>169</v>
+      <c r="AO46" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="AP46" s="10"/>
       <c r="AQ46" s="10"/>
@@ -5541,20 +5523,20 @@
       <c r="D47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="32"/>
+      <c r="E47" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="33"/>
       <c r="G47" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="J47" s="35"/>
+      <c r="I47" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="36"/>
       <c r="K47" s="10" t="n">
         <v>1</v>
       </c>
@@ -5563,27 +5545,27 @@
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="10"/>
@@ -5592,9 +5574,9 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF47" s="33" t="n">
+        <v>176</v>
+      </c>
+      <c r="AF47" s="34" t="n">
         <v>0</v>
       </c>
       <c r="AG47" s="10"/>
@@ -5611,7 +5593,7 @@
       </c>
       <c r="AO47" s="10"/>
       <c r="AP47" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ47" s="10"/>
       <c r="AR47" s="13"/>
@@ -5629,18 +5611,18 @@
       <c r="D48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="32"/>
+      <c r="E48" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="33"/>
       <c r="G48" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="10" t="n">
@@ -5662,7 +5644,7 @@
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
@@ -5674,7 +5656,7 @@
       <c r="AE48" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF48" s="33" t="n">
+      <c r="AF48" s="34" t="n">
         <v>0.05</v>
       </c>
       <c r="AG48" s="10"/>
@@ -5690,7 +5672,7 @@
         <v>47</v>
       </c>
       <c r="AO48" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP48" s="10"/>
       <c r="AQ48" s="10"/>
@@ -5711,15 +5693,15 @@
       <c r="D49" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" s="32"/>
+      <c r="E49" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="33"/>
       <c r="G49" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>55</v>
@@ -5731,30 +5713,30 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
@@ -5766,7 +5748,7 @@
       <c r="AE49" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF49" s="33" t="n">
+      <c r="AF49" s="34" t="n">
         <v>0</v>
       </c>
       <c r="AG49" s="10"/>
@@ -5783,7 +5765,7 @@
       </c>
       <c r="AO49" s="11"/>
       <c r="AP49" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AQ49" s="10"/>
       <c r="AR49" s="13"/>
@@ -5801,15 +5783,15 @@
       <c r="D50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="32"/>
+      <c r="E50" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="33"/>
       <c r="G50" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>55</v>
@@ -5822,17 +5804,17 @@
       <c r="M50" s="10"/>
       <c r="N50" s="8"/>
       <c r="O50" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
@@ -5840,7 +5822,7 @@
       <c r="W50" s="10"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
@@ -5852,7 +5834,7 @@
       <c r="AE50" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF50" s="33" t="n">
+      <c r="AF50" s="34" t="n">
         <v>0</v>
       </c>
       <c r="AG50" s="10"/>
@@ -5869,7 +5851,7 @@
       </c>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AQ50" s="10"/>
       <c r="AR50" s="13"/>
@@ -5888,28 +5870,28 @@
         <v>46</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="0"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
       <c r="R51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
@@ -5926,15 +5908,15 @@
         <v>51</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF51" s="36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF51" s="37" t="n">
         <v>0.1</v>
       </c>
       <c r="AG51" s="8"/>
       <c r="AH51" s="8"/>
       <c r="AI51" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
@@ -5946,7 +5928,7 @@
         <v>50</v>
       </c>
       <c r="AO51" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP51" s="10"/>
       <c r="AQ51" s="10"/>
@@ -5966,17 +5948,17 @@
         <v>46</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8" t="n">
@@ -5985,23 +5967,23 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
       <c r="S52" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
@@ -6014,13 +5996,13 @@
       <c r="AE52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF52" s="29" t="n">
+      <c r="AF52" s="30" t="n">
         <v>0</v>
       </c>
       <c r="AG52" s="8"/>
       <c r="AH52" s="8"/>
       <c r="AI52" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
@@ -6033,7 +6015,7 @@
       </c>
       <c r="AO52" s="10"/>
       <c r="AP52" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ52" s="10"/>
       <c r="AR52" s="13"/>
@@ -6052,17 +6034,17 @@
         <v>46</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8" t="n">
@@ -6071,23 +6053,23 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O53" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
+        <v>147</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
       <c r="X53" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
@@ -6100,7 +6082,7 @@
       <c r="AE53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF53" s="29" t="n">
+      <c r="AF53" s="30" t="n">
         <v>0</v>
       </c>
       <c r="AG53" s="8"/>
@@ -6117,7 +6099,7 @@
       </c>
       <c r="AO53" s="10"/>
       <c r="AP53" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ53" s="10"/>
       <c r="AR53" s="13"/>
@@ -6136,17 +6118,17 @@
         <v>46</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J54" s="0"/>
       <c r="K54" s="12" t="n">
@@ -6155,26 +6137,26 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
+      <c r="O54" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="37"/>
+      <c r="V54" s="38"/>
       <c r="W54" s="10"/>
       <c r="X54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z54" s="37"/>
+      <c r="Y54" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z54" s="38"/>
       <c r="AA54" s="8"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
@@ -6184,16 +6166,16 @@
       <c r="AE54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF54" s="36" t="n">
+      <c r="AF54" s="37" t="n">
         <v>0.1</v>
       </c>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ54" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK54" s="8"/>
       <c r="AL54" s="8"/>
@@ -6204,8 +6186,8 @@
         <v>53</v>
       </c>
       <c r="AO54" s="10"/>
-      <c r="AP54" s="38" t="s">
-        <v>214</v>
+      <c r="AP54" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="AQ54" s="10"/>
       <c r="AR54" s="13"/>
@@ -6224,17 +6206,17 @@
         <v>46</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="10" t="n">
@@ -6247,7 +6229,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -6255,10 +6237,10 @@
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
       <c r="X55" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y55" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
@@ -6270,7 +6252,7 @@
       <c r="AE55" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF55" s="39" t="n">
+      <c r="AF55" s="40" t="n">
         <v>0.05</v>
       </c>
       <c r="AG55" s="10"/>
@@ -6286,7 +6268,7 @@
         <v>54</v>
       </c>
       <c r="AO55" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP55" s="10"/>
       <c r="AQ55" s="10"/>
@@ -6308,17 +6290,17 @@
         <v>46</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="10" t="n">
@@ -6341,10 +6323,10 @@
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y56" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
@@ -6356,7 +6338,7 @@
       <c r="AE56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF56" s="39" t="n">
+      <c r="AF56" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG56" s="10"/>
@@ -6372,10 +6354,10 @@
         <v>55</v>
       </c>
       <c r="AO56" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP56" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ56" s="10"/>
       <c r="AR56" s="13"/>
@@ -6394,14 +6376,14 @@
         <v>46</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>55</v>
@@ -6413,44 +6395,44 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57" s="10"/>
       <c r="R57" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y57" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
-      <c r="AB57" s="40"/>
-      <c r="AC57" s="40"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
       <c r="AD57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AE57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF57" s="39" t="n">
+      <c r="AF57" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG57" s="10"/>
@@ -6467,7 +6449,7 @@
       </c>
       <c r="AO57" s="10"/>
       <c r="AP57" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ57" s="10"/>
       <c r="AR57" s="13"/>
@@ -6486,14 +6468,14 @@
         <v>46</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>55</v>
@@ -6506,39 +6488,39 @@
       <c r="M58" s="10"/>
       <c r="N58" s="8"/>
       <c r="O58" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58" s="10"/>
       <c r="R58" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
       <c r="X58" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="41"/>
       <c r="AD58" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AE58" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF58" s="39" t="n">
+      <c r="AF58" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG58" s="10"/>
@@ -6555,7 +6537,7 @@
       </c>
       <c r="AO58" s="10"/>
       <c r="AP58" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="13"/>
@@ -6574,17 +6556,17 @@
         <v>46</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="10" t="n">
@@ -6592,11 +6574,11 @@
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O59" s="42" t="s">
+      <c r="N59" s="42" t="s">
         <v>233</v>
+      </c>
+      <c r="O59" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -6611,10 +6593,10 @@
       <c r="V59" s="8"/>
       <c r="W59" s="10"/>
       <c r="X59" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y59" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
@@ -6626,13 +6608,13 @@
       <c r="AE59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF59" s="43" t="n">
+      <c r="AF59" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
@@ -6645,7 +6627,7 @@
       </c>
       <c r="AO59" s="10"/>
       <c r="AP59" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="13"/>
@@ -6664,17 +6646,17 @@
         <v>46</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="10" t="n">
@@ -6687,7 +6669,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
@@ -6695,10 +6677,10 @@
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y60" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
@@ -6710,7 +6692,7 @@
       <c r="AE60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF60" s="39" t="n">
+      <c r="AF60" s="40" t="n">
         <v>0.05</v>
       </c>
       <c r="AG60" s="10"/>
@@ -6726,7 +6708,7 @@
         <v>59</v>
       </c>
       <c r="AO60" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP60" s="10"/>
       <c r="AQ60" s="10"/>
@@ -6748,17 +6730,17 @@
         <v>46</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J61" s="0"/>
       <c r="K61" s="10" t="n">
@@ -6779,10 +6761,10 @@
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
       <c r="X61" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
@@ -6794,7 +6776,7 @@
       <c r="AE61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF61" s="39" t="n">
+      <c r="AF61" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG61" s="10"/>
@@ -6810,10 +6792,10 @@
         <v>60</v>
       </c>
       <c r="AO61" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AP61" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="13"/>
@@ -6832,14 +6814,14 @@
         <v>46</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>55</v>
@@ -6852,31 +6834,31 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R62" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y62" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
@@ -6888,7 +6870,7 @@
       <c r="AE62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF62" s="39" t="n">
+      <c r="AF62" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG62" s="10"/>
@@ -6905,7 +6887,7 @@
       </c>
       <c r="AO62" s="10"/>
       <c r="AP62" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="13"/>
@@ -6924,14 +6906,14 @@
         <v>46</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>55</v>
@@ -6944,29 +6926,29 @@
       <c r="M63" s="10"/>
       <c r="N63" s="8"/>
       <c r="O63" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R63" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S63" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y63" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
@@ -6978,7 +6960,7 @@
       <c r="AE63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF63" s="39" t="n">
+      <c r="AF63" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG63" s="10"/>
@@ -6995,7 +6977,7 @@
       </c>
       <c r="AO63" s="10"/>
       <c r="AP63" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="13"/>
@@ -7014,14 +6996,14 @@
         <v>46</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>55</v>
@@ -7033,10 +7015,10 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -7051,7 +7033,7 @@
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y64" s="8"/>
       <c r="Z64" s="10"/>
@@ -7064,7 +7046,7 @@
       <c r="AE64" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AF64" s="39" t="n">
+      <c r="AF64" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG64" s="10"/>
@@ -7081,7 +7063,7 @@
       </c>
       <c r="AO64" s="10"/>
       <c r="AP64" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="13"/>
@@ -7096,21 +7078,21 @@
       <c r="C65" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>252</v>
+      <c r="D65" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8" t="n">
@@ -7119,27 +7101,27 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O65" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="P65" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q65" s="28"/>
+      <c r="O65" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q65" s="29"/>
       <c r="R65" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
       <c r="X65" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
@@ -7150,9 +7132,9 @@
         <v>51</v>
       </c>
       <c r="AE65" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF65" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF65" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG65" s="8" t="n">
@@ -7162,10 +7144,10 @@
         <v>1</v>
       </c>
       <c r="AI65" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ65" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK65" s="8"/>
       <c r="AL65" s="8"/>
@@ -7190,21 +7172,21 @@
       <c r="C66" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="32" t="s">
-        <v>252</v>
+      <c r="D66" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8" t="n">
@@ -7213,27 +7195,27 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O66" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="P66" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q66" s="28"/>
+        <v>147</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q66" s="29"/>
       <c r="R66" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
       <c r="X66" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
@@ -7244,9 +7226,9 @@
         <v>51</v>
       </c>
       <c r="AE66" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF66" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF66" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG66" s="8" t="n">
@@ -7256,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AI66" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ66" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK66" s="8"/>
       <c r="AL66" s="8"/>
@@ -7284,21 +7266,21 @@
       <c r="C67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32" t="s">
-        <v>252</v>
+      <c r="D67" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8" t="n">
@@ -7307,27 +7289,27 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q67" s="9"/>
-      <c r="R67" s="31" t="s">
+      <c r="R67" s="32" t="s">
         <v>56</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -7338,9 +7320,9 @@
         <v>51</v>
       </c>
       <c r="AE67" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF67" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF67" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG67" s="8" t="n">
@@ -7350,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="AI67" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ67" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
@@ -7378,21 +7360,21 @@
       <c r="C68" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="32" t="s">
-        <v>252</v>
+      <c r="D68" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8" t="n">
@@ -7401,27 +7383,27 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="10" t="s">
         <v>56</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
@@ -7432,9 +7414,9 @@
         <v>51</v>
       </c>
       <c r="AE68" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF68" s="29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AF68" s="30" t="n">
         <v>0.025</v>
       </c>
       <c r="AG68" s="8" t="n">
@@ -7444,10 +7426,10 @@
         <v>1</v>
       </c>
       <c r="AI68" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ68" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
@@ -7472,24 +7454,24 @@
       <c r="C69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E69" s="38" t="s">
+      <c r="D69" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="E69" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="G69" s="38" t="s">
-        <v>214</v>
+      <c r="F69" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -7500,7 +7482,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
@@ -7514,7 +7496,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
-      <c r="AF69" s="43" t="n">
+      <c r="AF69" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG69" s="10"/>
@@ -7522,7 +7504,7 @@
       <c r="AI69" s="10"/>
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
-      <c r="AL69" s="32"/>
+      <c r="AL69" s="33"/>
       <c r="AM69" s="10"/>
       <c r="AN69" s="10" t="n">
         <v>68</v>
@@ -7542,39 +7524,39 @@
       <c r="C70" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="G70" s="38" t="s">
+      <c r="D70" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="39" t="s">
         <v>275</v>
       </c>
+      <c r="G70" s="39" t="s">
+        <v>276</v>
+      </c>
       <c r="H70" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
@@ -7588,7 +7570,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
-      <c r="AF70" s="43" t="n">
+      <c r="AF70" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG70" s="10"/>
@@ -7596,7 +7578,7 @@
       <c r="AI70" s="10"/>
       <c r="AJ70" s="10"/>
       <c r="AK70" s="10"/>
-      <c r="AL70" s="32"/>
+      <c r="AL70" s="33"/>
       <c r="AM70" s="10"/>
       <c r="AN70" s="10" t="n">
         <v>69</v>
@@ -7616,39 +7598,39 @@
       <c r="C71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="38" t="s">
+      <c r="D71" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="39" t="s">
         <v>275</v>
       </c>
+      <c r="G71" s="39" t="s">
+        <v>276</v>
+      </c>
       <c r="H71" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
@@ -7662,7 +7644,7 @@
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
-      <c r="AF71" s="43" t="n">
+      <c r="AF71" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG71" s="10"/>
@@ -7670,7 +7652,7 @@
       <c r="AI71" s="10"/>
       <c r="AJ71" s="10"/>
       <c r="AK71" s="10"/>
-      <c r="AL71" s="32"/>
+      <c r="AL71" s="33"/>
       <c r="AM71" s="10"/>
       <c r="AN71" s="10" t="n">
         <v>70</v>
@@ -7690,39 +7672,39 @@
       <c r="C72" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72" s="38" t="s">
+      <c r="D72" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="39" t="s">
         <v>281</v>
       </c>
+      <c r="G72" s="39" t="s">
+        <v>282</v>
+      </c>
       <c r="H72" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
@@ -7736,7 +7718,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
-      <c r="AF72" s="43" t="n">
+      <c r="AF72" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG72" s="10"/>
@@ -7744,7 +7726,7 @@
       <c r="AI72" s="10"/>
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
-      <c r="AL72" s="32"/>
+      <c r="AL72" s="33"/>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10" t="n">
         <v>71</v>
@@ -7764,39 +7746,39 @@
       <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="38" t="s">
+      <c r="D73" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="39" t="s">
         <v>281</v>
       </c>
+      <c r="G73" s="39" t="s">
+        <v>282</v>
+      </c>
       <c r="H73" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
@@ -7810,7 +7792,7 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
       <c r="AE73" s="10"/>
-      <c r="AF73" s="43" t="n">
+      <c r="AF73" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG73" s="10"/>
@@ -7818,7 +7800,7 @@
       <c r="AI73" s="10"/>
       <c r="AJ73" s="10"/>
       <c r="AK73" s="10"/>
-      <c r="AL73" s="32"/>
+      <c r="AL73" s="33"/>
       <c r="AM73" s="10"/>
       <c r="AN73" s="10" t="n">
         <v>72</v>
@@ -7838,26 +7820,26 @@
       <c r="C74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G74" s="38" t="s">
+      <c r="D74" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="39" t="s">
         <v>260</v>
       </c>
+      <c r="F74" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>261</v>
+      </c>
       <c r="H74" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
@@ -7868,7 +7850,7 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
@@ -7882,7 +7864,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
-      <c r="AF74" s="43" t="n">
+      <c r="AF74" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG74" s="10"/>
@@ -7890,7 +7872,7 @@
       <c r="AI74" s="10"/>
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
-      <c r="AL74" s="32"/>
+      <c r="AL74" s="33"/>
       <c r="AM74" s="10"/>
       <c r="AN74" s="10" t="n">
         <v>73</v>
@@ -7910,26 +7892,26 @@
       <c r="C75" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="38" t="s">
+      <c r="D75" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G75" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="J75" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
@@ -7940,7 +7922,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
@@ -7954,7 +7936,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
-      <c r="AF75" s="43" t="n">
+      <c r="AF75" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG75" s="10"/>
@@ -7962,7 +7944,7 @@
       <c r="AI75" s="10"/>
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
-      <c r="AL75" s="32"/>
+      <c r="AL75" s="33"/>
       <c r="AM75" s="10"/>
       <c r="AN75" s="10" t="n">
         <v>74</v>
@@ -7982,26 +7964,26 @@
       <c r="C76" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="G76" s="38" t="s">
+      <c r="D76" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E76" s="39" t="s">
         <v>254</v>
       </c>
+      <c r="F76" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>255</v>
+      </c>
       <c r="H76" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -8012,7 +7994,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -8026,7 +8008,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
-      <c r="AF76" s="43" t="n">
+      <c r="AF76" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG76" s="10"/>
@@ -8034,7 +8016,7 @@
       <c r="AI76" s="10"/>
       <c r="AJ76" s="10"/>
       <c r="AK76" s="10"/>
-      <c r="AL76" s="32"/>
+      <c r="AL76" s="33"/>
       <c r="AM76" s="10"/>
       <c r="AN76" s="10" t="n">
         <v>75</v>
@@ -8054,26 +8036,26 @@
       <c r="C77" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="G77" s="38" t="s">
+      <c r="D77" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="E77" s="39" t="s">
         <v>263</v>
       </c>
+      <c r="F77" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>264</v>
+      </c>
       <c r="H77" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
@@ -8084,7 +8066,7 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
@@ -8098,7 +8080,7 @@
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
-      <c r="AF77" s="43" t="n">
+      <c r="AF77" s="44" t="n">
         <v>0</v>
       </c>
       <c r="AG77" s="10"/>
@@ -8106,7 +8088,7 @@
       <c r="AI77" s="10"/>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="10"/>
-      <c r="AL77" s="32"/>
+      <c r="AL77" s="33"/>
       <c r="AM77" s="10"/>
       <c r="AN77" s="10" t="n">
         <v>76</v>
@@ -8117,7 +8099,7 @@
       <c r="AP77" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ69"/>
+  <autoFilter ref="A1:AQ77"/>
   <conditionalFormatting sqref="G3:G14">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -8187,22 +8169,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>289</v>
+      <c r="A1" s="46" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>213</v>
+      <c r="A2" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8224,58 +8206,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="48" t="s">
-        <v>293</v>
+      <c r="B4" s="49" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
@@ -34,12 +34,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="337">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1005,6 +1006,9 @@
     <t xml:space="preserve">Hidden</t>
   </si>
   <si>
+    <t xml:space="preserve">COOLER_QUALITY</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean) / </t>
   </si>
   <si>
@@ -1015,6 +1019,9 @@
   </si>
   <si>
     <t xml:space="preserve">SESSION LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIORITY_OCC</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet / On the move</t>
@@ -1037,6 +1044,9 @@
 No_StartDay</t>
   </si>
   <si>
+    <t xml:space="preserve">ACTIVATION_SSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of CCH activation points in SSD / Impulse Activation</t>
   </si>
   <si>
@@ -1051,16 +1061,28 @@
 No_DEST</t>
   </si>
   <si>
+    <t xml:space="preserve">CHILLED_SS_WATER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chilled Shelf Share Water / Chilled Shelf Share Water</t>
   </si>
   <si>
     <t xml:space="preserve">KPI result</t>
   </si>
   <si>
+    <t xml:space="preserve">CHILLED_SS_ENERGY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chilled Shelf Share Energy / Chilled Shelf Share Energy</t>
   </si>
   <si>
+    <t xml:space="preserve">CHILLED_SS_SSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chilled Shelf Share SSD / Chilled Shelf Share SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILLED_SS_TEA</t>
   </si>
   <si>
     <t xml:space="preserve">Chilled Shelf Share Tea / Chilled Shelf Share Tea</t>
@@ -1096,12 +1118,13 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1122,24 +1145,34 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -1147,6 +1180,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1154,6 +1188,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1263,10 +1298,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1338,15 +1369,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,6 +1399,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
@@ -1444,35 +1480,35 @@
   <dimension ref="1:77"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.96356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="8.96356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="49.5384615384615"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="17.9311740890688"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.1983805668016"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="12.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.0161943319838"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="23.3724696356275"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="23.080971659919"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="21.6113360323887"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.0121457489879"/>
-    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1640,22 +1676,22 @@
       <c r="F2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="5"/>
@@ -1681,13 +1717,13 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="8"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
@@ -1717,16 +1753,16 @@
       <c r="F3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="5" t="n">
@@ -1739,10 +1775,10 @@
       <c r="N3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="9" t="n">
         <v>0.016016</v>
       </c>
       <c r="Q3" s="5" t="s">
@@ -1766,7 +1802,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="8" t="n">
+      <c r="AB3" s="7" t="n">
         <v>5449000054227</v>
       </c>
       <c r="AC3" s="5" t="s">
@@ -1774,9 +1810,9 @@
       </c>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5" t="s">
         <v>60</v>
@@ -1810,16 +1846,16 @@
       <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K4" s="5" t="n">
@@ -1832,10 +1868,10 @@
       <c r="N4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="9" t="n">
         <v>0.016016</v>
       </c>
       <c r="Q4" s="5" t="s">
@@ -1859,7 +1895,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="8" t="n">
+      <c r="AB4" s="7" t="n">
         <v>54491472</v>
       </c>
       <c r="AC4" s="5" t="s">
@@ -1867,9 +1903,9 @@
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5" t="s">
         <v>60</v>
@@ -1903,32 +1939,32 @@
       <c r="F5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="9" t="n">
         <v>0.011998</v>
       </c>
       <c r="Q5" s="5" t="s">
@@ -1944,15 +1980,15 @@
       <c r="U5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="8" t="n">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="7" t="n">
         <v>40822938</v>
       </c>
       <c r="AC5" s="5" t="s">
@@ -1960,9 +1996,9 @@
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5" t="s">
         <v>60</v>
@@ -1975,7 +2011,7 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
-      <c r="AQ5" s="12"/>
+      <c r="AQ5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -1996,16 +2032,16 @@
       <c r="F6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="5" t="n">
@@ -2018,10 +2054,10 @@
       <c r="N6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="9" t="n">
         <v>0.011998</v>
       </c>
       <c r="Q6" s="5" t="s">
@@ -2045,7 +2081,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="8" t="n">
+      <c r="AB6" s="7" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC6" s="5" t="s">
@@ -2053,9 +2089,9 @@
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5" t="s">
         <v>60</v>
@@ -2086,35 +2122,35 @@
       <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="9" t="n">
         <v>0.011998</v>
       </c>
       <c r="Q7" s="5" t="s">
@@ -2130,15 +2166,15 @@
       <c r="U7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="8" t="n">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="7" t="n">
         <v>54491069</v>
       </c>
       <c r="AC7" s="5" t="s">
@@ -2146,9 +2182,9 @@
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5" t="s">
         <v>60</v>
@@ -2161,7 +2197,7 @@
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="12"/>
+      <c r="AQ7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2182,16 +2218,16 @@
       <c r="F8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="5" t="n">
@@ -2204,10 +2240,10 @@
       <c r="N8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="9" t="n">
         <v>0.011998</v>
       </c>
       <c r="Q8" s="5" t="s">
@@ -2240,8 +2276,8 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5" t="s">
         <v>60</v>
@@ -2275,16 +2311,16 @@
       <c r="F9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="5" t="n">
@@ -2297,10 +2333,10 @@
       <c r="N9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q9" s="5" t="s">
@@ -2324,7 +2360,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="8" t="n">
+      <c r="AB9" s="7" t="n">
         <v>5449000000996</v>
       </c>
       <c r="AC9" s="5" t="s">
@@ -2333,8 +2369,8 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5" t="s">
         <v>60</v>
@@ -2368,16 +2404,16 @@
       <c r="F10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="5" t="n">
@@ -2390,10 +2426,10 @@
       <c r="N10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="10" t="n">
+      <c r="P10" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q10" s="5" t="s">
@@ -2417,7 +2453,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="8" t="n">
+      <c r="AB10" s="7" t="n">
         <v>5449000050939</v>
       </c>
       <c r="AC10" s="5" t="s">
@@ -2426,8 +2462,8 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5" t="s">
         <v>60</v>
@@ -2461,16 +2497,16 @@
       <c r="F11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="n">
@@ -2483,10 +2519,10 @@
       <c r="N11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="10" t="n">
+      <c r="P11" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -2510,7 +2546,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="8" t="n">
+      <c r="AB11" s="7" t="n">
         <v>5449000213631</v>
       </c>
       <c r="AC11" s="5" t="s">
@@ -2519,8 +2555,8 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="1" t="s">
         <v>60</v>
@@ -2554,16 +2590,16 @@
       <c r="F12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="5" t="n">
@@ -2576,10 +2612,10 @@
       <c r="N12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -2603,7 +2639,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="8" t="n">
+      <c r="AB12" s="7" t="n">
         <v>5449000011527</v>
       </c>
       <c r="AC12" s="5" t="s">
@@ -2612,8 +2648,8 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5" t="s">
         <v>60</v>
@@ -2647,16 +2683,16 @@
       <c r="F13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="5" t="n">
@@ -2669,10 +2705,10 @@
       <c r="N13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="10" t="n">
+      <c r="P13" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q13" s="5" t="s">
@@ -2696,7 +2732,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="8" t="n">
+      <c r="AB13" s="7" t="n">
         <v>5449000014535</v>
       </c>
       <c r="AC13" s="5" t="s">
@@ -2705,8 +2741,8 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5" t="s">
         <v>60</v>
@@ -2740,16 +2776,16 @@
       <c r="F14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="5" t="n">
@@ -2762,10 +2798,10 @@
       <c r="N14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q14" s="5" t="s">
@@ -2789,7 +2825,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="8" t="n">
+      <c r="AB14" s="7" t="n">
         <v>5449000131805</v>
       </c>
       <c r="AC14" s="5" t="s">
@@ -2798,8 +2834,8 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5" t="s">
         <v>60</v>
@@ -2833,22 +2869,22 @@
       <c r="F15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>87</v>
       </c>
       <c r="M15" s="5"/>
@@ -2874,13 +2910,13 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="8"/>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
@@ -2910,16 +2946,16 @@
       <c r="F16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="5" t="n">
@@ -2932,10 +2968,10 @@
       <c r="N16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="10" t="n">
+      <c r="P16" s="9" t="n">
         <v>0.01599</v>
       </c>
       <c r="Q16" s="5" t="s">
@@ -2959,7 +2995,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="8" t="n">
+      <c r="AB16" s="7" t="n">
         <v>40822426</v>
       </c>
       <c r="AC16" s="5" t="s">
@@ -2968,8 +3004,8 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5" t="s">
         <v>60</v>
@@ -3003,16 +3039,16 @@
       <c r="F17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="5" t="n">
@@ -3025,10 +3061,10 @@
       <c r="N17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="9" t="n">
         <v>0.01599</v>
       </c>
       <c r="Q17" s="5" t="s">
@@ -3052,7 +3088,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="8" t="n">
+      <c r="AB17" s="7" t="n">
         <v>5449000005489</v>
       </c>
       <c r="AC17" s="5" t="s">
@@ -3061,8 +3097,8 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5" t="s">
         <v>60</v>
@@ -3096,16 +3132,16 @@
       <c r="F18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="5" t="n">
@@ -3118,10 +3154,10 @@
       <c r="N18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="10" t="n">
+      <c r="P18" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -3145,7 +3181,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="8" t="n">
+      <c r="AB18" s="7" t="n">
         <v>5449000026583</v>
       </c>
       <c r="AC18" s="5" t="s">
@@ -3154,8 +3190,8 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5" t="s">
         <v>60</v>
@@ -3189,16 +3225,16 @@
       <c r="F19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="5" t="n">
@@ -3211,10 +3247,10 @@
       <c r="N19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="10" t="n">
+      <c r="P19" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q19" s="5" t="s">
@@ -3238,7 +3274,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="8" t="n">
+      <c r="AB19" s="7" t="n">
         <v>90494406</v>
       </c>
       <c r="AC19" s="5" t="s">
@@ -3247,8 +3283,8 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5" t="s">
         <v>60</v>
@@ -3282,16 +3318,16 @@
       <c r="F20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K20" s="5" t="n">
@@ -3304,10 +3340,10 @@
       <c r="N20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q20" s="5" t="s">
@@ -3331,7 +3367,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="8" t="n">
+      <c r="AB20" s="7" t="n">
         <v>90494956</v>
       </c>
       <c r="AC20" s="5" t="s">
@@ -3340,8 +3376,8 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5" t="s">
         <v>60</v>
@@ -3375,16 +3411,16 @@
       <c r="F21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K21" s="5" t="n">
@@ -3397,10 +3433,10 @@
       <c r="N21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q21" s="5" t="s">
@@ -3424,7 +3460,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="8" t="n">
+      <c r="AB21" s="7" t="n">
         <v>5449000152190</v>
       </c>
       <c r="AC21" s="5" t="s">
@@ -3433,8 +3469,8 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5" t="s">
         <v>60</v>
@@ -3468,16 +3504,16 @@
       <c r="F22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>86</v>
       </c>
       <c r="K22" s="5" t="n">
@@ -3490,10 +3526,10 @@
       <c r="N22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="10" t="n">
+      <c r="P22" s="9" t="n">
         <v>0.009984</v>
       </c>
       <c r="Q22" s="5" t="s">
@@ -3517,7 +3553,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="8" t="n">
+      <c r="AB22" s="7" t="n">
         <v>5449000214263</v>
       </c>
       <c r="AC22" s="5" t="s">
@@ -3526,8 +3562,8 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5" t="s">
         <v>60</v>
@@ -3561,22 +3597,22 @@
       <c r="F23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>105</v>
       </c>
       <c r="M23" s="5"/>
@@ -3602,13 +3638,13 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="8"/>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -3638,16 +3674,16 @@
       <c r="F24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K24" s="5" t="n">
@@ -3660,10 +3696,10 @@
       <c r="N24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="10" t="n">
+      <c r="P24" s="9" t="n">
         <v>0.01599</v>
       </c>
       <c r="Q24" s="5" t="s">
@@ -3687,7 +3723,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="8" t="n">
+      <c r="AB24" s="7" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC24" s="5" t="s">
@@ -3696,8 +3732,8 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5" t="s">
         <v>60</v>
@@ -3731,16 +3767,16 @@
       <c r="F25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K25" s="5" t="n">
@@ -3753,10 +3789,10 @@
       <c r="N25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="9" t="n">
         <v>0.013</v>
       </c>
       <c r="Q25" s="5" t="s">
@@ -3780,7 +3816,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="8" t="n">
+      <c r="AB25" s="7" t="n">
         <v>5449000148056</v>
       </c>
       <c r="AC25" s="5" t="s">
@@ -3789,8 +3825,8 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5" t="s">
         <v>60</v>
@@ -3824,16 +3860,16 @@
       <c r="F26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K26" s="5" t="n">
@@ -3843,13 +3879,13 @@
       <c r="M26" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="P26" s="10" t="n">
+      <c r="P26" s="9" t="n">
         <v>0.013</v>
       </c>
       <c r="Q26" s="5" t="s">
@@ -3873,17 +3909,17 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="8" t="n">
+      <c r="AB26" s="7" t="n">
         <v>5060335632937</v>
       </c>
-      <c r="AC26" s="9" t="s">
+      <c r="AC26" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5" t="s">
         <v>60</v>
@@ -3917,16 +3953,16 @@
       <c r="F27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="5" t="n">
@@ -3936,13 +3972,13 @@
       <c r="M27" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="P27" s="10" t="n">
+      <c r="P27" s="9" t="n">
         <v>0.013</v>
       </c>
       <c r="Q27" s="5" t="s">
@@ -3966,17 +4002,17 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="8" t="n">
+      <c r="AB27" s="7" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="AC27" s="9" t="s">
+      <c r="AC27" s="8" t="s">
         <v>113</v>
       </c>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5" t="s">
         <v>60</v>
@@ -4010,16 +4046,16 @@
       <c r="F28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K28" s="5" t="n">
@@ -4032,10 +4068,10 @@
       <c r="N28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="10" t="n">
+      <c r="P28" s="9" t="n">
         <v>0.013</v>
       </c>
       <c r="Q28" s="5" t="s">
@@ -4059,7 +4095,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="8" t="n">
+      <c r="AB28" s="7" t="n">
         <v>5060466510869</v>
       </c>
       <c r="AC28" s="5" t="s">
@@ -4068,8 +4104,8 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5" t="s">
         <v>60</v>
@@ -4103,16 +4139,16 @@
       <c r="F29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K29" s="5" t="n">
@@ -4125,10 +4161,10 @@
       <c r="N29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P29" s="10" t="n">
+      <c r="P29" s="9" t="n">
         <v>0.009984</v>
       </c>
       <c r="Q29" s="5" t="s">
@@ -4152,7 +4188,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="8" t="n">
+      <c r="AB29" s="7" t="n">
         <v>5060466510920</v>
       </c>
       <c r="AC29" s="5" t="s">
@@ -4161,8 +4197,8 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5" t="s">
         <v>60</v>
@@ -4196,16 +4232,16 @@
       <c r="F30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K30" s="5" t="n">
@@ -4218,10 +4254,10 @@
       <c r="N30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P30" s="10" t="n">
+      <c r="P30" s="9" t="n">
         <v>0.009984</v>
       </c>
       <c r="Q30" s="5" t="s">
@@ -4245,7 +4281,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="16" t="n">
+      <c r="AB30" s="15" t="n">
         <v>5060517884710</v>
       </c>
       <c r="AC30" s="5" t="s">
@@ -4254,8 +4290,8 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5" t="s">
         <v>60</v>
@@ -4289,16 +4325,16 @@
       <c r="F31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>104</v>
       </c>
       <c r="K31" s="5" t="n">
@@ -4311,10 +4347,10 @@
       <c r="N31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="10" t="n">
+      <c r="P31" s="9" t="n">
         <v>0.009984</v>
       </c>
       <c r="Q31" s="5" t="s">
@@ -4338,7 +4374,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="8" t="n">
+      <c r="AB31" s="7" t="n">
         <v>5060466516038</v>
       </c>
       <c r="AC31" s="5" t="s">
@@ -4347,8 +4383,8 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5" t="s">
         <v>60</v>
@@ -4382,22 +4418,22 @@
       <c r="F32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>124</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="6" t="s">
         <v>125</v>
       </c>
       <c r="M32" s="5"/>
@@ -4423,13 +4459,13 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="8"/>
+      <c r="AB32" s="7"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
@@ -4459,16 +4495,16 @@
       <c r="F33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>124</v>
       </c>
       <c r="K33" s="5" t="n">
@@ -4481,10 +4517,10 @@
       <c r="N33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="P33" s="10" t="n">
+      <c r="P33" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q33" s="5" t="s">
@@ -4508,7 +4544,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="8" t="s">
+      <c r="AB33" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AC33" s="5" t="s">
@@ -4517,8 +4553,8 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5" t="s">
         <v>60</v>
@@ -4552,16 +4588,16 @@
       <c r="F34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>124</v>
       </c>
       <c r="K34" s="5" t="n">
@@ -4574,10 +4610,10 @@
       <c r="N34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="P34" s="10" t="n">
+      <c r="P34" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q34" s="5" t="s">
@@ -4601,7 +4637,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="8" t="n">
+      <c r="AB34" s="7" t="n">
         <v>5449000233622</v>
       </c>
       <c r="AC34" s="5" t="s">
@@ -4610,8 +4646,8 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5" t="s">
         <v>60</v>
@@ -4645,16 +4681,16 @@
       <c r="F35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="5" t="s">
         <v>124</v>
       </c>
       <c r="K35" s="5" t="n">
@@ -4667,10 +4703,10 @@
       <c r="N35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="O35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P35" s="10" t="n">
+      <c r="P35" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q35" s="5" t="s">
@@ -4694,7 +4730,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="8" t="n">
+      <c r="AB35" s="7" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC35" s="5" t="s">
@@ -4703,8 +4739,8 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5" t="s">
         <v>60</v>
@@ -4738,16 +4774,16 @@
       <c r="F36" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>124</v>
       </c>
       <c r="K36" s="5" t="n">
@@ -4760,10 +4796,10 @@
       <c r="N36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="10" t="n">
+      <c r="P36" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q36" s="5" t="s">
@@ -4787,7 +4823,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="8" t="n">
+      <c r="AB36" s="7" t="n">
         <v>5449000233615</v>
       </c>
       <c r="AC36" s="5" t="s">
@@ -4796,8 +4832,8 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5" t="s">
         <v>60</v>
@@ -4831,22 +4867,22 @@
       <c r="F37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M37" s="5"/>
@@ -4872,13 +4908,13 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
-      <c r="AB37" s="8"/>
+      <c r="AB37" s="7"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
@@ -4908,16 +4944,16 @@
       <c r="F38" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K38" s="5" t="n">
@@ -4930,10 +4966,10 @@
       <c r="N38" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="P38" s="10" t="n">
+      <c r="P38" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q38" s="5" t="s">
@@ -4957,7 +4993,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
-      <c r="AB38" s="8" t="n">
+      <c r="AB38" s="7" t="n">
         <v>4607174577787</v>
       </c>
       <c r="AC38" s="5" t="s">
@@ -4966,8 +5002,8 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5" t="s">
         <v>60</v>
@@ -5001,16 +5037,16 @@
       <c r="F39" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K39" s="5" t="n">
@@ -5023,10 +5059,10 @@
       <c r="N39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="P39" s="10" t="n">
+      <c r="P39" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q39" s="5" t="s">
@@ -5050,7 +5086,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
-      <c r="AB39" s="8" t="n">
+      <c r="AB39" s="7" t="n">
         <v>4607174577794</v>
       </c>
       <c r="AC39" s="5" t="s">
@@ -5059,8 +5095,8 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5" t="s">
         <v>60</v>
@@ -5094,16 +5130,16 @@
       <c r="F40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K40" s="5" t="n">
@@ -5116,10 +5152,10 @@
       <c r="N40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P40" s="10" t="n">
+      <c r="P40" s="9" t="n">
         <v>0.01001</v>
       </c>
       <c r="Q40" s="5" t="s">
@@ -5143,7 +5179,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="8" t="n">
+      <c r="AB40" s="7" t="n">
         <v>4607174579729</v>
       </c>
       <c r="AC40" s="5" t="s">
@@ -5152,8 +5188,8 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5" t="s">
         <v>60</v>
@@ -5187,16 +5223,16 @@
       <c r="F41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K41" s="5" t="n">
@@ -5209,10 +5245,10 @@
       <c r="N41" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="P41" s="10" t="n">
+      <c r="P41" s="9" t="n">
         <v>0.009984</v>
       </c>
       <c r="Q41" s="5" t="s">
@@ -5236,7 +5272,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="8" t="n">
+      <c r="AB41" s="7" t="n">
         <v>4607174574908</v>
       </c>
       <c r="AC41" s="5" t="s">
@@ -5245,8 +5281,8 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="15"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5" t="s">
         <v>60</v>
@@ -5280,30 +5316,30 @@
       <c r="F42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="5" t="s">
         <v>152</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>41</v>
       </c>
       <c r="L42" s="5"/>
-      <c r="M42" s="12"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="5" t="s">
         <v>153</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="P42" s="10" t="n">
+      <c r="P42" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q42" s="5" t="s">
@@ -5333,7 +5369,7 @@
       <c r="AA42" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AB42" s="11" t="s">
+      <c r="AB42" s="10" t="s">
         <v>159</v>
       </c>
       <c r="AC42" s="5" t="s">
@@ -5341,11 +5377,11 @@
       </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="11" t="s">
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="AH42" s="11"/>
+      <c r="AH42" s="10"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5" t="s">
@@ -5379,30 +5415,30 @@
       <c r="F43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>165</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>42</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="12"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="5" t="s">
         <v>166</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P43" s="10" t="n">
+      <c r="P43" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q43" s="5" t="s">
@@ -5432,7 +5468,7 @@
       <c r="AA43" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AB43" s="11" t="s">
+      <c r="AB43" s="10" t="s">
         <v>168</v>
       </c>
       <c r="AC43" s="5" t="s">
@@ -5440,11 +5476,11 @@
       </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="11" t="s">
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="AH43" s="11"/>
+      <c r="AH43" s="10"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5" t="s">
@@ -5478,30 +5514,30 @@
       <c r="F44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>171</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>43</v>
       </c>
       <c r="L44" s="5"/>
-      <c r="M44" s="12"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="5" t="s">
         <v>172</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="P44" s="10" t="n">
+      <c r="P44" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q44" s="5" t="s">
@@ -5531,7 +5567,7 @@
       <c r="AA44" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AB44" s="11" t="s">
+      <c r="AB44" s="10" t="s">
         <v>174</v>
       </c>
       <c r="AC44" s="5" t="s">
@@ -5539,11 +5575,11 @@
       </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="11" t="s">
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AH44" s="11"/>
+      <c r="AH44" s="10"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5" t="s">
@@ -5577,16 +5613,16 @@
       <c r="F45" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>177</v>
       </c>
       <c r="K45" s="5" t="n">
@@ -5600,7 +5636,7 @@
       <c r="O45" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="10" t="n">
+      <c r="P45" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q45" s="5" t="s">
@@ -5630,7 +5666,7 @@
       <c r="AA45" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AB45" s="11" t="s">
+      <c r="AB45" s="10" t="s">
         <v>180</v>
       </c>
       <c r="AC45" s="5" t="s">
@@ -5638,11 +5674,11 @@
       </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="11" t="s">
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AH45" s="11"/>
+      <c r="AH45" s="10"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5" t="s">
@@ -5676,22 +5712,22 @@
       <c r="F46" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="5" t="s">
         <v>185</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="16" t="s">
         <v>186</v>
       </c>
       <c r="M46" s="5"/>
@@ -5701,7 +5737,7 @@
       <c r="O46" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="P46" s="18" t="n">
+      <c r="P46" s="17" t="n">
         <v>0.05</v>
       </c>
       <c r="Q46" s="5" t="s">
@@ -5711,7 +5747,7 @@
       <c r="S46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="19"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="5" t="s">
         <v>59</v>
       </c>
@@ -5759,16 +5795,16 @@
       <c r="F47" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>185</v>
       </c>
       <c r="K47" s="5" t="n">
@@ -5784,12 +5820,13 @@
       <c r="O47" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="P47" s="18" t="n">
+      <c r="P47" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="R47" s="0"/>
       <c r="S47" s="5" t="s">
         <v>57</v>
       </c>
@@ -5853,22 +5890,22 @@
       <c r="F48" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>185</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="6" t="s">
         <v>196</v>
       </c>
       <c r="M48" s="5"/>
@@ -5878,7 +5915,7 @@
       <c r="O48" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="P48" s="18" t="n">
+      <c r="P48" s="17" t="n">
         <v>0.05</v>
       </c>
       <c r="Q48" s="5" t="s">
@@ -5938,16 +5975,16 @@
       <c r="F49" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" s="5" t="s">
         <v>185</v>
       </c>
       <c r="K49" s="5" t="n">
@@ -5963,7 +6000,7 @@
       <c r="O49" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P49" s="18" t="n">
+      <c r="P49" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="5" t="s">
@@ -6033,16 +6070,16 @@
       <c r="F50" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="5" t="s">
         <v>185</v>
       </c>
       <c r="K50" s="5" t="n">
@@ -6058,7 +6095,7 @@
       <c r="O50" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="P50" s="18" t="n">
+      <c r="P50" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="5" t="s">
@@ -6124,22 +6161,22 @@
       <c r="F51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="5" t="s">
         <v>214</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="6" t="s">
         <v>215</v>
       </c>
       <c r="M51" s="5"/>
@@ -6149,7 +6186,7 @@
       <c r="O51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P51" s="20" t="n">
+      <c r="P51" s="19" t="n">
         <v>0.1</v>
       </c>
       <c r="Q51" s="5" t="s">
@@ -6165,17 +6202,17 @@
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="19"/>
+      <c r="X51" s="18"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="8"/>
+      <c r="AB51" s="7"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
@@ -6207,16 +6244,16 @@
       <c r="F52" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>214</v>
       </c>
       <c r="K52" s="5" t="n">
@@ -6232,7 +6269,7 @@
       <c r="O52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="P52" s="10" t="n">
+      <c r="P52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="5" t="s">
@@ -6254,7 +6291,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="8" t="s">
+      <c r="AB52" s="7" t="s">
         <v>224</v>
       </c>
       <c r="AC52" s="5" t="s">
@@ -6262,9 +6299,9 @@
       </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5" t="s">
@@ -6298,16 +6335,16 @@
       <c r="F53" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="5" t="s">
         <v>214</v>
       </c>
       <c r="K53" s="5" t="n">
@@ -6323,7 +6360,7 @@
       <c r="O53" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="P53" s="10" t="n">
+      <c r="P53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="5" t="s">
@@ -6345,7 +6382,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="8" t="s">
+      <c r="AB53" s="7" t="s">
         <v>224</v>
       </c>
       <c r="AC53" s="5" t="s">
@@ -6353,9 +6390,9 @@
       </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5" t="s">
@@ -6387,36 +6424,36 @@
       <c r="F54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" s="5" t="s">
         <v>232</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>53</v>
       </c>
       <c r="L54" s="5"/>
-      <c r="M54" s="21"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="5" t="s">
         <v>233</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="P54" s="20" t="n">
+      <c r="P54" s="19" t="n">
         <v>0.1</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="R54" s="19"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5" t="s">
         <v>236</v>
@@ -6440,9 +6477,10 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="0"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5" t="s">
         <v>60</v>
@@ -6450,6 +6488,7 @@
       <c r="AL54" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="AM54" s="0"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
@@ -6476,22 +6515,22 @@
       <c r="F55" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="6" t="s">
         <v>242</v>
       </c>
       <c r="M55" s="5"/>
@@ -6501,7 +6540,7 @@
       <c r="O55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="P55" s="22" t="n">
+      <c r="P55" s="21" t="n">
         <v>0.05</v>
       </c>
       <c r="Q55" s="5" t="s">
@@ -6563,22 +6602,22 @@
       <c r="F56" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="6" t="s">
         <v>246</v>
       </c>
       <c r="M56" s="5" t="n">
@@ -6590,13 +6629,13 @@
       <c r="O56" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="P56" s="22" t="n">
+      <c r="P56" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="R56" s="19"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="5" t="s">
         <v>57</v>
       </c>
@@ -6654,16 +6693,16 @@
       <c r="F57" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K57" s="5" t="n">
@@ -6679,7 +6718,7 @@
       <c r="O57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="P57" s="22" t="n">
+      <c r="P57" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="5" t="s">
@@ -6728,8 +6767,8 @@
       </c>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
-      <c r="AO57" s="15"/>
-      <c r="AP57" s="15"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="14"/>
       <c r="AQ57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6751,16 +6790,16 @@
       <c r="F58" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K58" s="5" t="n">
@@ -6776,7 +6815,7 @@
       <c r="O58" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="P58" s="22" t="n">
+      <c r="P58" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="5" t="s">
@@ -6821,8 +6860,8 @@
       </c>
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
-      <c r="AO58" s="15"/>
-      <c r="AP58" s="15"/>
+      <c r="AO58" s="14"/>
+      <c r="AP58" s="14"/>
       <c r="AQ58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6844,16 +6883,16 @@
       <c r="F59" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K59" s="5" t="n">
@@ -6869,13 +6908,13 @@
       <c r="O59" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P59" s="10" t="n">
+      <c r="P59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R59" s="19"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="5" t="s">
         <v>57</v>
       </c>
@@ -6893,10 +6932,10 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
-      <c r="AB59" s="23" t="s">
+      <c r="AB59" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="AC59" s="24" t="s">
+      <c r="AC59" s="23" t="s">
         <v>258</v>
       </c>
       <c r="AD59" s="5"/>
@@ -6914,8 +6953,8 @@
       </c>
       <c r="AM59" s="5"/>
       <c r="AN59" s="5"/>
-      <c r="AO59" s="15"/>
-      <c r="AP59" s="15"/>
+      <c r="AO59" s="14"/>
+      <c r="AP59" s="14"/>
       <c r="AQ59" s="5" t="s">
         <v>259</v>
       </c>
@@ -6939,22 +6978,22 @@
       <c r="F60" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="6" t="s">
         <v>260</v>
       </c>
       <c r="M60" s="5"/>
@@ -6964,7 +7003,7 @@
       <c r="O60" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="P60" s="22" t="n">
+      <c r="P60" s="21" t="n">
         <v>0.05</v>
       </c>
       <c r="Q60" s="5" t="s">
@@ -7026,22 +7065,22 @@
       <c r="F61" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="6" t="s">
         <v>263</v>
       </c>
       <c r="M61" s="5" t="n">
@@ -7053,13 +7092,13 @@
       <c r="O61" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="P61" s="22" t="n">
+      <c r="P61" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="R61" s="19"/>
+      <c r="R61" s="18"/>
       <c r="S61" s="5" t="s">
         <v>57</v>
       </c>
@@ -7115,16 +7154,16 @@
       <c r="F62" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K62" s="5" t="n">
@@ -7140,7 +7179,7 @@
       <c r="O62" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="P62" s="22" t="n">
+      <c r="P62" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="5" t="s">
@@ -7212,16 +7251,16 @@
       <c r="F63" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K63" s="5" t="n">
@@ -7237,7 +7276,7 @@
       <c r="O63" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="P63" s="22" t="n">
+      <c r="P63" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="5" t="s">
@@ -7307,16 +7346,16 @@
       <c r="F64" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K64" s="5" t="n">
@@ -7332,7 +7371,7 @@
       <c r="O64" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="P64" s="22" t="n">
+      <c r="P64" s="21" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="5" t="s">
@@ -7398,30 +7437,30 @@
       <c r="F65" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="5" t="s">
         <v>282</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>64</v>
       </c>
       <c r="L65" s="5"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="5" t="s">
         <v>283</v>
       </c>
       <c r="O65" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="P65" s="10" t="n">
+      <c r="P65" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q65" s="5" t="s">
@@ -7451,7 +7490,7 @@
       <c r="AA65" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AB65" s="8" t="s">
+      <c r="AB65" s="7" t="s">
         <v>159</v>
       </c>
       <c r="AC65" s="5" t="s">
@@ -7459,11 +7498,11 @@
       </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
-      <c r="AF65" s="8"/>
-      <c r="AG65" s="8" t="s">
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AH65" s="8"/>
+      <c r="AH65" s="7"/>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5" t="s">
@@ -7497,30 +7536,30 @@
       <c r="F66" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="5" t="s">
         <v>290</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>65</v>
       </c>
       <c r="L66" s="5"/>
-      <c r="M66" s="12"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="5" t="s">
         <v>291</v>
       </c>
       <c r="O66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="P66" s="10" t="n">
+      <c r="P66" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q66" s="5" t="s">
@@ -7550,7 +7589,7 @@
       <c r="AA66" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AB66" s="8" t="s">
+      <c r="AB66" s="7" t="s">
         <v>168</v>
       </c>
       <c r="AC66" s="5" t="s">
@@ -7558,11 +7597,11 @@
       </c>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="8" t="s">
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AH66" s="8"/>
+      <c r="AH66" s="7"/>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5" t="s">
@@ -7596,30 +7635,30 @@
       <c r="F67" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="5" t="s">
         <v>295</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>66</v>
       </c>
       <c r="L67" s="5"/>
-      <c r="M67" s="12"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="5" t="s">
         <v>296</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="P67" s="10" t="n">
+      <c r="P67" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q67" s="5" t="s">
@@ -7649,7 +7688,7 @@
       <c r="AA67" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AB67" s="8" t="s">
+      <c r="AB67" s="7" t="s">
         <v>174</v>
       </c>
       <c r="AC67" s="5" t="s">
@@ -7657,11 +7696,11 @@
       </c>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8" t="s">
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AH67" s="8"/>
+      <c r="AH67" s="7"/>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5" t="s">
@@ -7695,16 +7734,16 @@
       <c r="F68" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="5" t="s">
         <v>300</v>
       </c>
       <c r="K68" s="5" t="n">
@@ -7718,7 +7757,7 @@
       <c r="O68" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="P68" s="10" t="n">
+      <c r="P68" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q68" s="5" t="s">
@@ -7748,7 +7787,7 @@
       <c r="AA68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AB68" s="8" t="s">
+      <c r="AB68" s="7" t="s">
         <v>180</v>
       </c>
       <c r="AC68" s="5" t="s">
@@ -7756,11 +7795,11 @@
       </c>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8" t="s">
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AH68" s="8"/>
+      <c r="AH68" s="7"/>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5" t="s">
@@ -7782,7 +7821,7 @@
       <c r="B69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -7792,10 +7831,10 @@
         <v>304</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
       <c r="K69" s="5" t="n">
         <v>68</v>
       </c>
@@ -7803,25 +7842,24 @@
         <v>53</v>
       </c>
       <c r="M69" s="5"/>
-      <c r="N69" s="0" t="str">
-        <f aca="false">CONCATENATE(Q69," / ",R69)</f>
-        <v>sum of KPI scores / Decimal.2</v>
+      <c r="N69" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="P69" s="10" t="n">
+        <v>306</v>
+      </c>
+      <c r="P69" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
@@ -7854,7 +7892,7 @@
       <c r="B70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -7864,10 +7902,10 @@
         <v>304</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="5" t="n">
         <v>69</v>
       </c>
@@ -7875,25 +7913,24 @@
         <v>54</v>
       </c>
       <c r="M70" s="5"/>
-      <c r="N70" s="0" t="str">
-        <f aca="false">CONCATENATE(Q70," / ",R70)</f>
-        <v>Passed or Failed Value / Text</v>
+      <c r="N70" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="P70" s="10" t="n">
+        <v>311</v>
+      </c>
+      <c r="P70" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
@@ -7902,8 +7939,8 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
-      <c r="AB70" s="7" t="s">
-        <v>312</v>
+      <c r="AB70" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -7928,7 +7965,7 @@
       <c r="B71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -7938,10 +7975,10 @@
         <v>304</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
       <c r="K71" s="5" t="n">
         <v>70</v>
       </c>
@@ -7949,25 +7986,24 @@
         <v>59</v>
       </c>
       <c r="M71" s="5"/>
-      <c r="N71" s="0" t="str">
-        <f aca="false">CONCATENATE(Q71," / ",R71)</f>
-        <v>Passed or Failed Value / Text</v>
+      <c r="N71" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="O71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="P71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="P71" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
@@ -7976,8 +8012,8 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
-      <c r="AB71" s="7" t="s">
-        <v>314</v>
+      <c r="AB71" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -8002,7 +8038,7 @@
       <c r="B72" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>181</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -8012,10 +8048,10 @@
         <v>304</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
       <c r="K72" s="5" t="n">
         <v>71</v>
       </c>
@@ -8023,25 +8059,24 @@
         <v>45</v>
       </c>
       <c r="M72" s="5"/>
-      <c r="N72" s="0" t="str">
-        <f aca="false">CONCATENATE(Q72," / ",R72)</f>
-        <v>Passed or Failed Value / Text</v>
+      <c r="N72" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="P72" s="10" t="n">
+        <v>318</v>
+      </c>
+      <c r="P72" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
@@ -8050,8 +8085,8 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
-      <c r="AB72" s="7" t="s">
-        <v>316</v>
+      <c r="AB72" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
@@ -8076,7 +8111,7 @@
       <c r="B73" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>181</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -8086,10 +8121,10 @@
         <v>304</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
       <c r="K73" s="5" t="n">
         <v>72</v>
       </c>
@@ -8097,25 +8132,24 @@
         <v>47</v>
       </c>
       <c r="M73" s="5"/>
-      <c r="N73" s="0" t="str">
-        <f aca="false">CONCATENATE(Q73," / ",R73)</f>
-        <v>Passed or Failed Value / Text</v>
+      <c r="N73" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="P73" s="10" t="n">
+        <v>320</v>
+      </c>
+      <c r="P73" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
@@ -8124,8 +8158,8 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
-      <c r="AB73" s="7" t="s">
-        <v>318</v>
+      <c r="AB73" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -8150,7 +8184,7 @@
       <c r="B74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>288</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -8160,10 +8194,10 @@
         <v>304</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="5" t="n">
         <v>73</v>
       </c>
@@ -8171,25 +8205,24 @@
         <v>65</v>
       </c>
       <c r="M74" s="5"/>
-      <c r="N74" s="0" t="str">
-        <f aca="false">CONCATENATE(Q74," / ",R74)</f>
-        <v>KPI result / Decimal.2</v>
+      <c r="N74" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="P74" s="10" t="n">
+        <v>323</v>
+      </c>
+      <c r="P74" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
@@ -8222,7 +8255,7 @@
       <c r="B75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -8232,10 +8265,10 @@
         <v>304</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
       <c r="K75" s="5" t="n">
         <v>74</v>
       </c>
@@ -8243,25 +8276,24 @@
         <v>67</v>
       </c>
       <c r="M75" s="5"/>
-      <c r="N75" s="0" t="str">
-        <f aca="false">CONCATENATE(Q75," / ",R75)</f>
-        <v>KPI result / Decimal.2</v>
+      <c r="N75" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="P75" s="10" t="n">
+        <v>326</v>
+      </c>
+      <c r="P75" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S75" s="5"/>
       <c r="T75" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
@@ -8294,7 +8326,7 @@
       <c r="B76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -8304,10 +8336,10 @@
         <v>304</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="5" t="n">
         <v>75</v>
       </c>
@@ -8315,25 +8347,24 @@
         <v>64</v>
       </c>
       <c r="M76" s="5"/>
-      <c r="N76" s="0" t="str">
-        <f aca="false">CONCATENATE(Q76," / ",R76)</f>
-        <v>KPI result / Decimal.2</v>
+      <c r="N76" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="P76" s="10" t="n">
+        <v>328</v>
+      </c>
+      <c r="P76" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
@@ -8366,7 +8397,7 @@
       <c r="B77" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -8376,10 +8407,10 @@
         <v>304</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
       <c r="K77" s="5" t="n">
         <v>76</v>
       </c>
@@ -8387,25 +8418,24 @@
         <v>66</v>
       </c>
       <c r="M77" s="5"/>
-      <c r="N77" s="0" t="str">
-        <f aca="false">CONCATENATE(Q77," / ",R77)</f>
-        <v>KPI result / Decimal.2</v>
+      <c r="N77" s="24" t="s">
+        <v>329</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="P77" s="10" t="n">
+        <v>330</v>
+      </c>
+      <c r="P77" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
@@ -8530,10 +8560,10 @@
         <v>28</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>42</v>
@@ -8542,18 +8572,18 @@
         <v>15</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="27" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Petroleum PoS 2018.xlsx
@@ -35,12 +35,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AQ$69</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="338">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -481,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189318, 5449000236241</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
@@ -1118,7 +1122,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1153,6 +1157,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1242,7 +1253,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1268,11 +1279,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,6 +1351,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1361,39 +1379,40 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1479,34 +1498,34 @@
   </sheetPr>
   <dimension ref="1:77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="AB33" activeCellId="0" sqref="AB33:AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.10526315789474"/>
   </cols>
@@ -4730,8 +4749,8 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="7" t="n">
-        <v>5449000189318</v>
+      <c r="AB35" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="AC35" s="5" t="s">
         <v>132</v>
@@ -4794,10 +4813,10 @@
         <v>31</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P36" s="9" t="n">
         <v>0.01001</v>
@@ -4827,7 +4846,7 @@
         <v>5449000233615</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
@@ -4874,23 +4893,23 @@
         <v>48</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>36</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
@@ -4951,10 +4970,10 @@
         <v>48</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>37</v>
@@ -4964,10 +4983,10 @@
         <v>36</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P38" s="9" t="n">
         <v>0.01001</v>
@@ -4997,7 +5016,7 @@
         <v>4607174577787</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
@@ -5044,10 +5063,10 @@
         <v>48</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>38</v>
@@ -5057,10 +5076,10 @@
         <v>36</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P39" s="9" t="n">
         <v>0.01001</v>
@@ -5090,7 +5109,7 @@
         <v>4607174577794</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
@@ -5137,10 +5156,10 @@
         <v>48</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>39</v>
@@ -5150,10 +5169,10 @@
         <v>36</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P40" s="9" t="n">
         <v>0.01001</v>
@@ -5183,7 +5202,7 @@
         <v>4607174579729</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
@@ -5230,10 +5249,10 @@
         <v>48</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>40</v>
@@ -5243,10 +5262,10 @@
         <v>36</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P41" s="9" t="n">
         <v>0.009984</v>
@@ -5276,7 +5295,7 @@
         <v>4607174574908</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -5305,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>45</v>
@@ -5317,16 +5336,16 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>41</v>
@@ -5334,26 +5353,26 @@
       <c r="L42" s="5"/>
       <c r="M42" s="11"/>
       <c r="N42" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P42" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V42" s="5" t="n">
         <v>0</v>
@@ -5367,25 +5386,25 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB42" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH42" s="10"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
@@ -5393,7 +5412,7 @@
       <c r="AO42" s="5"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5404,7 +5423,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>45</v>
@@ -5416,16 +5435,16 @@
         <v>2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>42</v>
@@ -5433,26 +5452,26 @@
       <c r="L43" s="5"/>
       <c r="M43" s="11"/>
       <c r="N43" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P43" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V43" s="5" t="n">
         <v>0</v>
@@ -5466,25 +5485,25 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH43" s="10"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
@@ -5492,7 +5511,7 @@
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5503,7 +5522,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>45</v>
@@ -5515,16 +5534,16 @@
         <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>43</v>
@@ -5532,26 +5551,26 @@
       <c r="L44" s="5"/>
       <c r="M44" s="11"/>
       <c r="N44" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P44" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V44" s="5" t="n">
         <v>0</v>
@@ -5565,25 +5584,25 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH44" s="10"/>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
@@ -5591,7 +5610,7 @@
       <c r="AO44" s="5"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5602,7 +5621,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>45</v>
@@ -5614,16 +5633,16 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>44</v>
@@ -5631,26 +5650,26 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P45" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V45" s="5" t="n">
         <v>0</v>
@@ -5664,25 +5683,25 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH45" s="10"/>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
@@ -5690,7 +5709,7 @@
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5701,7 +5720,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>45</v>
@@ -5713,41 +5732,41 @@
         <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="L46" s="16" t="s">
-        <v>186</v>
+      <c r="L46" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="P46" s="17" t="n">
+        <v>189</v>
+      </c>
+      <c r="P46" s="18" t="n">
         <v>0.05</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="18"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="5" t="s">
         <v>59</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>45</v>
@@ -5796,16 +5815,16 @@
         <v>3</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>46</v>
@@ -5815,26 +5834,26 @@
         <v>45</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="P47" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="P47" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R47" s="0"/>
       <c r="S47" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
@@ -5847,22 +5866,22 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
@@ -5879,7 +5898,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>45</v>
@@ -5891,35 +5910,35 @@
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>47</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="17" t="n">
+        <v>199</v>
+      </c>
+      <c r="P48" s="18" t="n">
         <v>0.05</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5" t="s">
@@ -5948,7 +5967,7 @@
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
       <c r="AL48" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
@@ -5964,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>45</v>
@@ -5976,16 +5995,16 @@
         <v>3</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>48</v>
@@ -5995,12 +6014,12 @@
         <v>47</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="P49" s="17" t="n">
+        <v>203</v>
+      </c>
+      <c r="P49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="5" t="s">
@@ -6011,7 +6030,7 @@
         <v>57</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>59</v>
@@ -6025,25 +6044,25 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
       <c r="AL49" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
@@ -6059,7 +6078,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>45</v>
@@ -6071,16 +6090,16 @@
         <v>3</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>49</v>
@@ -6090,12 +6109,12 @@
         <v>47</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="P50" s="17" t="n">
+        <v>207</v>
+      </c>
+      <c r="P50" s="18" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="5" t="s">
@@ -6106,7 +6125,7 @@
         <v>57</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>59</v>
@@ -6120,21 +6139,21 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
       <c r="AL50" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
@@ -6150,7 +6169,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>45</v>
@@ -6162,47 +6181,47 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P51" s="19" t="n">
+        <v>218</v>
+      </c>
+      <c r="P51" s="20" t="n">
         <v>0.1</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="18"/>
+      <c r="X51" s="19"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -6222,7 +6241,7 @@
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
       <c r="AQ51" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6233,7 +6252,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>45</v>
@@ -6245,16 +6264,16 @@
         <v>3</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>51</v>
@@ -6264,21 +6283,21 @@
         <v>50</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>59</v>
@@ -6292,10 +6311,10 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -6305,7 +6324,7 @@
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL52" s="5"/>
       <c r="AM52" s="5"/>
@@ -6313,7 +6332,7 @@
       <c r="AO52" s="5"/>
       <c r="AP52" s="5"/>
       <c r="AQ52" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6324,7 +6343,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>45</v>
@@ -6336,16 +6355,16 @@
         <v>3</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>52</v>
@@ -6355,21 +6374,21 @@
         <v>50</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>59</v>
@@ -6383,10 +6402,10 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -6396,7 +6415,7 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
@@ -6413,7 +6432,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>45</v>
@@ -6425,38 +6444,38 @@
         <v>2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>53</v>
       </c>
       <c r="L54" s="5"/>
-      <c r="M54" s="20"/>
+      <c r="M54" s="21"/>
       <c r="N54" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="P54" s="19" t="n">
+        <v>235</v>
+      </c>
+      <c r="P54" s="20" t="n">
         <v>0.1</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="R54" s="18"/>
+        <v>236</v>
+      </c>
+      <c r="R54" s="19"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>59</v>
@@ -6469,10 +6488,10 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -6486,14 +6505,14 @@
         <v>60</v>
       </c>
       <c r="AL54" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM54" s="0"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
       <c r="AP54" s="5"/>
       <c r="AQ54" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6504,7 +6523,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>45</v>
@@ -6516,39 +6535,39 @@
         <v>2</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>54</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="P55" s="21" t="n">
+        <v>245</v>
+      </c>
+      <c r="P55" s="22" t="n">
         <v>0.05</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T55" s="5"/>
       <c r="U55" s="5" t="s">
@@ -6572,10 +6591,10 @@
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
@@ -6591,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>45</v>
@@ -6603,39 +6622,39 @@
         <v>3</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>55</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>54</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="P56" s="21" t="n">
+        <v>249</v>
+      </c>
+      <c r="P56" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R56" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="R56" s="19"/>
       <c r="S56" s="5" t="s">
         <v>57</v>
       </c>
@@ -6663,10 +6682,10 @@
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM56" s="5"/>
       <c r="AN56" s="5"/>
@@ -6682,7 +6701,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>45</v>
@@ -6694,16 +6713,16 @@
         <v>4</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>56</v>
@@ -6713,12 +6732,12 @@
         <v>55</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="P57" s="21" t="n">
+        <v>252</v>
+      </c>
+      <c r="P57" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="5" t="s">
@@ -6729,7 +6748,7 @@
         <v>57</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>59</v>
@@ -6743,27 +6762,27 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
       <c r="AK57" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM57" s="5"/>
       <c r="AN57" s="5"/>
@@ -6779,7 +6798,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>45</v>
@@ -6791,16 +6810,16 @@
         <v>4</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>57</v>
@@ -6810,12 +6829,12 @@
         <v>55</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="P58" s="21" t="n">
+        <v>254</v>
+      </c>
+      <c r="P58" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="5" t="s">
@@ -6826,7 +6845,7 @@
         <v>57</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>59</v>
@@ -6840,23 +6859,23 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL58" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
@@ -6872,7 +6891,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>45</v>
@@ -6884,16 +6903,16 @@
         <v>3</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>58</v>
@@ -6903,18 +6922,18 @@
         <v>54</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="R59" s="18"/>
+        <v>257</v>
+      </c>
+      <c r="R59" s="19"/>
       <c r="S59" s="5" t="s">
         <v>57</v>
       </c>
@@ -6932,11 +6951,11 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
-      <c r="AB59" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC59" s="23" t="s">
+      <c r="AB59" s="23" t="s">
         <v>258</v>
+      </c>
+      <c r="AC59" s="24" t="s">
+        <v>259</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -6946,17 +6965,17 @@
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
       <c r="AK59" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL59" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM59" s="5"/>
       <c r="AN59" s="5"/>
       <c r="AO59" s="14"/>
       <c r="AP59" s="14"/>
       <c r="AQ59" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6967,7 +6986,7 @@
         <v>43</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>45</v>
@@ -6979,39 +6998,39 @@
         <v>2</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>59</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="P60" s="21" t="n">
+        <v>263</v>
+      </c>
+      <c r="P60" s="22" t="n">
         <v>0.05</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R60" s="5"/>
       <c r="S60" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T60" s="5"/>
       <c r="U60" s="5" t="s">
@@ -7035,10 +7054,10 @@
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
       <c r="AK60" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL60" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM60" s="5"/>
       <c r="AN60" s="5"/>
@@ -7054,7 +7073,7 @@
         <v>43</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>45</v>
@@ -7066,39 +7085,39 @@
         <v>3</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>60</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>59</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="P61" s="21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P61" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R61" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="R61" s="19"/>
       <c r="S61" s="5" t="s">
         <v>57</v>
       </c>
@@ -7124,10 +7143,10 @@
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
@@ -7143,7 +7162,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>45</v>
@@ -7155,16 +7174,16 @@
         <v>4</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>61</v>
@@ -7174,12 +7193,12 @@
         <v>60</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="P62" s="21" t="n">
+        <v>268</v>
+      </c>
+      <c r="P62" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="5" t="s">
@@ -7190,7 +7209,7 @@
         <v>57</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>59</v>
@@ -7204,27 +7223,27 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL62" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
@@ -7240,7 +7259,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>45</v>
@@ -7252,16 +7271,16 @@
         <v>4</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>62</v>
@@ -7271,12 +7290,12 @@
         <v>60</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="P63" s="21" t="n">
+        <v>272</v>
+      </c>
+      <c r="P63" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="5" t="s">
@@ -7287,7 +7306,7 @@
         <v>57</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>59</v>
@@ -7301,25 +7320,25 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG63" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
       <c r="AK63" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL63" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM63" s="5"/>
       <c r="AN63" s="5"/>
@@ -7335,7 +7354,7 @@
         <v>43</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>45</v>
@@ -7347,16 +7366,16 @@
         <v>3</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>63</v>
@@ -7366,12 +7385,12 @@
         <v>60</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="P64" s="21" t="n">
+        <v>275</v>
+      </c>
+      <c r="P64" s="22" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="5" t="s">
@@ -7396,10 +7415,10 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -7409,7 +7428,7 @@
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
       <c r="AK64" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL64" s="5"/>
       <c r="AM64" s="5"/>
@@ -7426,28 +7445,28 @@
         <v>43</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>64</v>
@@ -7455,26 +7474,26 @@
       <c r="L65" s="5"/>
       <c r="M65" s="11"/>
       <c r="N65" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P65" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V65" s="5" t="n">
         <v>0</v>
@@ -7488,25 +7507,25 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB65" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH65" s="7"/>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL65" s="5"/>
       <c r="AM65" s="5"/>
@@ -7514,7 +7533,7 @@
       <c r="AO65" s="5"/>
       <c r="AP65" s="5"/>
       <c r="AQ65" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7525,28 +7544,28 @@
         <v>43</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>65</v>
@@ -7554,26 +7573,26 @@
       <c r="L66" s="5"/>
       <c r="M66" s="11"/>
       <c r="N66" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P66" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R66" s="5"/>
       <c r="S66" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V66" s="5" t="n">
         <v>0</v>
@@ -7587,25 +7606,25 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB66" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH66" s="7"/>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
@@ -7613,7 +7632,7 @@
       <c r="AO66" s="5"/>
       <c r="AP66" s="5"/>
       <c r="AQ66" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7624,28 +7643,28 @@
         <v>43</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>66</v>
@@ -7653,26 +7672,26 @@
       <c r="L67" s="5"/>
       <c r="M67" s="11"/>
       <c r="N67" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P67" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V67" s="5" t="n">
         <v>0</v>
@@ -7686,25 +7705,25 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH67" s="7"/>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
@@ -7712,7 +7731,7 @@
       <c r="AO67" s="5"/>
       <c r="AP67" s="5"/>
       <c r="AQ67" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7723,28 +7742,28 @@
         <v>43</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>67</v>
@@ -7752,26 +7771,26 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P68" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V68" s="5" t="n">
         <v>0</v>
@@ -7785,25 +7804,25 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB68" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="7"/>
       <c r="AG68" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH68" s="7"/>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
@@ -7811,7 +7830,7 @@
       <c r="AO68" s="5"/>
       <c r="AP68" s="5"/>
       <c r="AQ68" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7821,20 +7840,20 @@
       <c r="B69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>303</v>
+      <c r="C69" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="5" t="n">
         <v>68</v>
       </c>
@@ -7842,24 +7861,24 @@
         <v>53</v>
       </c>
       <c r="M69" s="5"/>
-      <c r="N69" s="24" t="s">
-        <v>305</v>
+      <c r="N69" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P69" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
@@ -7892,20 +7911,20 @@
       <c r="B70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>239</v>
+      <c r="C70" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="5" t="n">
         <v>69</v>
       </c>
@@ -7913,24 +7932,24 @@
         <v>54</v>
       </c>
       <c r="M70" s="5"/>
-      <c r="N70" s="24" t="s">
-        <v>310</v>
+      <c r="N70" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P70" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
@@ -7940,7 +7959,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -7965,20 +7984,20 @@
       <c r="B71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>239</v>
+      <c r="C71" s="21" t="s">
+        <v>240</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
       <c r="K71" s="5" t="n">
         <v>70</v>
       </c>
@@ -7986,24 +8005,24 @@
         <v>59</v>
       </c>
       <c r="M71" s="5"/>
-      <c r="N71" s="24" t="s">
-        <v>310</v>
+      <c r="N71" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P71" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
@@ -8013,7 +8032,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -8038,20 +8057,20 @@
       <c r="B72" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>181</v>
+      <c r="C72" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
       <c r="K72" s="5" t="n">
         <v>71</v>
       </c>
@@ -8059,24 +8078,24 @@
         <v>45</v>
       </c>
       <c r="M72" s="5"/>
-      <c r="N72" s="24" t="s">
-        <v>317</v>
+      <c r="N72" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P72" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
@@ -8086,7 +8105,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
@@ -8111,20 +8130,20 @@
       <c r="B73" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>181</v>
+      <c r="C73" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="5" t="n">
         <v>72</v>
       </c>
@@ -8132,24 +8151,24 @@
         <v>47</v>
       </c>
       <c r="M73" s="5"/>
-      <c r="N73" s="24" t="s">
-        <v>317</v>
+      <c r="N73" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P73" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
@@ -8159,7 +8178,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -8184,20 +8203,20 @@
       <c r="B74" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>288</v>
+      <c r="C74" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="5" t="n">
         <v>73</v>
       </c>
@@ -8205,24 +8224,24 @@
         <v>65</v>
       </c>
       <c r="M74" s="5"/>
-      <c r="N74" s="24" t="s">
-        <v>322</v>
+      <c r="N74" s="25" t="s">
+        <v>323</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P74" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
@@ -8255,20 +8274,20 @@
       <c r="B75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>298</v>
+      <c r="C75" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="5" t="n">
         <v>74</v>
       </c>
@@ -8276,24 +8295,24 @@
         <v>67</v>
       </c>
       <c r="M75" s="5"/>
-      <c r="N75" s="24" t="s">
-        <v>325</v>
+      <c r="N75" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P75" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S75" s="5"/>
       <c r="T75" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
@@ -8326,20 +8345,20 @@
       <c r="B76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>277</v>
+      <c r="C76" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="5" t="n">
         <v>75</v>
       </c>
@@ -8347,24 +8366,24 @@
         <v>64</v>
       </c>
       <c r="M76" s="5"/>
-      <c r="N76" s="24" t="s">
-        <v>327</v>
+      <c r="N76" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P76" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
@@ -8397,20 +8416,20 @@
       <c r="B77" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>293</v>
+      <c r="C77" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="5" t="n">
         <v>76</v>
       </c>
@@ -8418,24 +8437,24 @@
         <v>66</v>
       </c>
       <c r="M77" s="5"/>
-      <c r="N77" s="24" t="s">
-        <v>329</v>
+      <c r="N77" s="25" t="s">
+        <v>330</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P77" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
@@ -8532,7 +8551,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB33:AB36 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8541,49 +8560,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>335</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="27" t="s">
-        <v>336</v>
+      <c r="B4" s="28" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
